--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J2">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N2">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q2">
-        <v>0.6229019272304444</v>
+        <v>0.04243559225955555</v>
       </c>
       <c r="R2">
-        <v>5.606117345073999</v>
+        <v>0.381920330336</v>
       </c>
       <c r="S2">
-        <v>0.008793398743470118</v>
+        <v>0.0006106560041767144</v>
       </c>
       <c r="T2">
-        <v>0.00879339874347012</v>
+        <v>0.0006106560041767144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J3">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q3">
-        <v>2.973776003906888</v>
+        <v>0.1503993157541111</v>
       </c>
       <c r="R3">
-        <v>26.76398403516199</v>
+        <v>1.353593841787</v>
       </c>
       <c r="S3">
-        <v>0.04198028137813466</v>
+        <v>0.002164273910154668</v>
       </c>
       <c r="T3">
-        <v>0.04198028137813468</v>
+        <v>0.002164273910154668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H4">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I4">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J4">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q4">
-        <v>1.064492458643333</v>
+        <v>0.05383691885166666</v>
       </c>
       <c r="R4">
-        <v>9.580432127790001</v>
+        <v>0.484532269665</v>
       </c>
       <c r="S4">
-        <v>0.01502725587940709</v>
+        <v>0.0007747231979716716</v>
       </c>
       <c r="T4">
-        <v>0.0150272558794071</v>
+        <v>0.0007747231979716716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.129417</v>
       </c>
       <c r="I5">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J5">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N5">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O5">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P5">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q5">
-        <v>3.467543477355889</v>
+        <v>4.670839031576889</v>
       </c>
       <c r="R5">
-        <v>31.207891296203</v>
+        <v>42.03755128419201</v>
       </c>
       <c r="S5">
-        <v>0.04895071137808323</v>
+        <v>0.06721423567578719</v>
       </c>
       <c r="T5">
-        <v>0.04895071137808323</v>
+        <v>0.06721423567578719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.129417</v>
       </c>
       <c r="I6">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J6">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>131.916367</v>
       </c>
       <c r="O6">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P6">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q6">
         <v>16.55428749644878</v>
@@ -818,10 +818,10 @@
         <v>148.988587468039</v>
       </c>
       <c r="S6">
-        <v>0.2336940126635092</v>
+        <v>0.2382192521961948</v>
       </c>
       <c r="T6">
-        <v>0.2336940126635093</v>
+        <v>0.2382192521961947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.129417</v>
       </c>
       <c r="I7">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J7">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>15.740255</v>
       </c>
       <c r="N7">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O7">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P7">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q7">
-        <v>5.925770527111668</v>
+        <v>5.925770527111667</v>
       </c>
       <c r="R7">
-        <v>53.33193474400501</v>
+        <v>53.331934744005</v>
       </c>
       <c r="S7">
-        <v>0.0836530773614361</v>
+        <v>0.08527293149630363</v>
       </c>
       <c r="T7">
-        <v>0.08365307736143611</v>
+        <v>0.08527293149630362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.751027</v>
       </c>
       <c r="I8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N8">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O8">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P8">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q8">
-        <v>5.376014574354778</v>
+        <v>7.241581503505778</v>
       </c>
       <c r="R8">
-        <v>48.384131169193</v>
+        <v>65.17423353155201</v>
       </c>
       <c r="S8">
-        <v>0.07589226768521364</v>
+        <v>0.104207694281799</v>
       </c>
       <c r="T8">
-        <v>0.07589226768521364</v>
+        <v>0.104207694281799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.751027</v>
       </c>
       <c r="I9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>131.916367</v>
       </c>
       <c r="O9">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P9">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q9">
         <v>25.66545781765655</v>
@@ -1004,10 +1004,10 @@
         <v>230.989120358909</v>
       </c>
       <c r="S9">
-        <v>0.3623148278378548</v>
+        <v>0.3693306746005651</v>
       </c>
       <c r="T9">
-        <v>0.3623148278378549</v>
+        <v>0.369330674600565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.751027</v>
       </c>
       <c r="I10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>15.740255</v>
       </c>
       <c r="N10">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O10">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P10">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q10">
-        <v>9.187203830628336</v>
+        <v>9.187203830628334</v>
       </c>
       <c r="R10">
-        <v>82.68483447565502</v>
+        <v>82.68483447565501</v>
       </c>
       <c r="S10">
-        <v>0.129694167072891</v>
+        <v>0.1322055586370473</v>
       </c>
       <c r="T10">
-        <v>0.129694167072891</v>
+        <v>0.1322055586370473</v>
       </c>
     </row>
   </sheetData>
